--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -5,20 +5,24 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\github\AdaptM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\github\coverData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="525" windowWidth="25605" windowHeight="19665" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16920" yWindow="525" windowWidth="25605" windowHeight="19665" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="4" r:id="rId1"/>
     <sheet name="colNames" sheetId="2" r:id="rId2"/>
-    <sheet name="soilType" sheetId="7" r:id="rId3"/>
-    <sheet name="wildernessArea" sheetId="6" r:id="rId4"/>
-    <sheet name="targetName" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="soilType" sheetId="7" r:id="rId4"/>
+    <sheet name="wildernessArea" sheetId="6" r:id="rId5"/>
+    <sheet name="targetName" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="231">
   <si>
     <t>Elevation</t>
   </si>
@@ -712,6 +716,15 @@
   </si>
   <si>
     <t>HS.3pm</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -925,9 +938,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1097,6 +1117,509 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ADMINIBM" refreshedDate="42464.499721064814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="41">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F1:H1048576" sheet="soilType"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="geologic.zones" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="igneous and metamorphic"/>
+        <s v="mixed sedimentary"/>
+        <s v="glacial"/>
+        <s v="alluvium"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="climate.geologic.zone" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="newLabel" numFmtId="0">
+      <sharedItems containsBlank="1" count="41">
+        <s v="Cathedral"/>
+        <s v="Vanet"/>
+        <s v="Haploborolis"/>
+        <s v="Ratake"/>
+        <s v="Vanet1"/>
+        <s v="Vanet2"/>
+        <s v="Gothic"/>
+        <s v="Supervisor"/>
+        <s v="Troutville"/>
+        <s v="Bullwark1"/>
+        <s v="Bullwark2"/>
+        <s v="Legault"/>
+        <s v="Catamount1"/>
+        <s v="Pachic"/>
+        <s v="unspecified"/>
+        <s v="Cryaquolis"/>
+        <s v="Gateview"/>
+        <s v="Rogert"/>
+        <s v="Typic1"/>
+        <s v="Typic2"/>
+        <s v="Typic3"/>
+        <s v="Leighcan1"/>
+        <s v="Leighcan2"/>
+        <s v="Leighcan3"/>
+        <s v="Leighcan4"/>
+        <s v="Granile"/>
+        <s v="Leighcan5"/>
+        <s v="Leighcan6"/>
+        <s v="Como1"/>
+        <s v="Como2"/>
+        <s v="Leighcan7"/>
+        <s v="Catamount2"/>
+        <s v="Leighcan8"/>
+        <s v="Cryorthents"/>
+        <s v="Cryumbrepts"/>
+        <s v="Bross"/>
+        <s v="Rock"/>
+        <s v="Leighcan9"/>
+        <s v="Moran1"/>
+        <s v="Moran2"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
+  <r>
+    <x v="0"/>
+    <s v="lower montane-igneous and metamorphic"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lower montane-igneous and metamorphic"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lower montane-igneous and metamorphic"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lower montane-igneous and metamorphic"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lower montane-igneous and metamorphic"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lower montane-igneous and metamorphic"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="montane dry-mixed sedimentary"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="montane dry-mixed sedimentary"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="montane-glacial"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="montane-igneous and metamorphic"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="montane-igneous and metamorphic"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="montane-igneous and metamorphic"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="montane-igneous and metamorphic"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="montane dry and montane-alluvium"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="montane dry and montane-alluvium"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="montane and subalpine-alluvium"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="montane and subalpine-alluvium"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="montane and subalpine-igneous and metamorphic"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="subalpine-alluvium"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="subalpine-alluvium"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="subalpine-alluvium"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="subalpine-glacial"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="subalpine-glacial"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="subalpine-igneous and metamorphic"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="alpine-igneous and metamorphic"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="alpine-igneous and metamorphic"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="alpine-igneous and metamorphic"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="alpine-igneous and metamorphic"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="alpine-igneous and metamorphic"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="alpine-igneous and metamorphic"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <x v="40"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="42">
+        <item x="35"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="31"/>
+        <item x="0"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="15"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="36"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="47">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2263,7 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2778,10 +3301,269 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2790,7 +3572,6 @@
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3870,12 +4651,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3933,12 +4714,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
